--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11895" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13512" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>paul</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>paul:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+The option is readonly, not choosable.
+Only selectable programatically, when selected make the all options read-only
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
   <si>
     <t>group</t>
   </si>
@@ -51,6 +85,9 @@
     <t>readonly</t>
   </si>
   <si>
+    <t>display_condition</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -177,6 +214,9 @@
     <t>3.5. Data do Censo?</t>
   </si>
   <si>
+    <t>collected</t>
+  </si>
+  <si>
     <t>collectedBy</t>
   </si>
   <si>
@@ -201,6 +241,15 @@
     <t>4.2. Data da Visita</t>
   </si>
   <si>
+    <t>modules</t>
+  </si>
+  <si>
+    <t>Access Granted to Modules</t>
+  </si>
+  <si>
+    <t>Acesso permitido ao Módulos</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -222,46 +271,82 @@
     <t>Feminino</t>
   </si>
   <si>
+    <t>HOH</t>
+  </si>
+  <si>
+    <t>Head of Household</t>
+  </si>
+  <si>
+    <t>Chefe do Agregado</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>SPO</t>
+  </si>
+  <si>
     <t>Spouse</t>
   </si>
   <si>
     <t>Esposo/a</t>
   </si>
   <si>
+    <t>SON</t>
+  </si>
+  <si>
     <t>Son/Daughter</t>
   </si>
   <si>
     <t>Filho/Filha</t>
   </si>
   <si>
+    <t>BRO</t>
+  </si>
+  <si>
     <t>Brother/Sister</t>
   </si>
   <si>
     <t>Irmão/Irmã</t>
   </si>
   <si>
+    <t>PAR</t>
+  </si>
+  <si>
     <t>Parent</t>
   </si>
   <si>
     <t>Pai/Mãe</t>
   </si>
   <si>
+    <t>GCH</t>
+  </si>
+  <si>
     <t>Grandchild</t>
   </si>
   <si>
     <t>Neto/a</t>
   </si>
   <si>
+    <t>NOR</t>
+  </si>
+  <si>
     <t>Not Related</t>
   </si>
   <si>
     <t>Sem relação</t>
   </si>
   <si>
+    <t>OTH</t>
+  </si>
+  <si>
     <t>Other Relative</t>
   </si>
   <si>
     <t>Outro parente</t>
+  </si>
+  <si>
+    <t>DNK</t>
   </si>
   <si>
     <t>Don't Know</t>
@@ -293,12 +378,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -322,6 +407,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -329,10 +458,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,40 +527,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,25 +543,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,56 +558,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -482,19 +578,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,31 +698,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,127 +740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,6 +769,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -700,47 +850,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,173 +869,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -939,6 +1035,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -1257,25 +1359,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="11.1428571428571" customWidth="true"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="true"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="true"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="true"/>
-    <col min="6" max="6" width="12.2857142857143" customWidth="true"/>
+    <col min="2" max="2" width="11.1388888888889" customWidth="true"/>
+    <col min="3" max="3" width="14.1388888888889" customWidth="true"/>
+    <col min="4" max="4" width="20.1388888888889" customWidth="true"/>
+    <col min="5" max="5" width="11.712962962963" customWidth="true"/>
+    <col min="6" max="6" width="12.287037037037" customWidth="true"/>
     <col min="7" max="8" width="41" customWidth="true"/>
-    <col min="9" max="9" width="21.7142857142857" customWidth="true"/>
-    <col min="10" max="10" width="9.28571428571429" customWidth="true"/>
+    <col min="9" max="9" width="21.712962962963" customWidth="true"/>
+    <col min="10" max="10" width="9.28703703703704" customWidth="true"/>
+    <col min="12" max="12" width="16.5740740740741" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,24 +1412,27 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I2" s="9"/>
       <c r="J2" t="b">
         <v>1</v>
       </c>
@@ -1336,21 +1442,21 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I3" s="9"/>
       <c r="J3" t="b">
         <v>1</v>
       </c>
@@ -1360,21 +1466,21 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="9"/>
       <c r="J4" t="b">
         <v>1</v>
       </c>
@@ -1384,21 +1490,21 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I5" s="9"/>
       <c r="J5" t="b">
         <v>1</v>
       </c>
@@ -1408,22 +1514,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="I6" s="9"/>
       <c r="J6" t="b">
         <v>1</v>
       </c>
@@ -1433,21 +1539,21 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I7" s="9"/>
       <c r="J7" t="b">
         <v>1</v>
       </c>
@@ -1457,21 +1563,21 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="I8" s="9"/>
       <c r="J8" t="b">
         <v>1</v>
       </c>
@@ -1484,36 +1590,36 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="I9" s="9"/>
       <c r="J9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:10">
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I10" s="9"/>
       <c r="J10" t="b">
         <v>1</v>
       </c>
@@ -1521,18 +1627,18 @@
     <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="I11" s="9"/>
       <c r="J11" t="b">
         <v>1</v>
       </c>
@@ -1540,21 +1646,21 @@
     <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="I12" s="9"/>
       <c r="J12" t="b">
         <v>1</v>
       </c>
@@ -1562,38 +1668,40 @@
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="I13" s="9"/>
       <c r="J13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="I14" s="9"/>
       <c r="J14" t="b">
         <v>1</v>
       </c>
@@ -1602,20 +1710,22 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="I15" s="9"/>
       <c r="J15" t="b">
         <v>1</v>
       </c>
@@ -1623,21 +1733,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="I16" s="7"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1"/>
@@ -1685,26 +1815,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="true"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="true"/>
-    <col min="3" max="4" width="13.8571428571429" customWidth="true"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="true"/>
+    <col min="1" max="1" width="12.5740740740741" customWidth="true"/>
+    <col min="2" max="2" width="12.287037037037" customWidth="true"/>
+    <col min="3" max="3" width="18.1388888888889" customWidth="true"/>
+    <col min="4" max="4" width="18.287037037037" customWidth="true"/>
+    <col min="5" max="5" width="13.1388888888889" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1712,152 +1843,173 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="5">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="5">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1866,37 +2018,37 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="true"/>
-    <col min="2" max="2" width="20.4285714285714" customWidth="true"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="true"/>
+    <col min="2" max="2" width="20.4259259259259" customWidth="true"/>
+    <col min="3" max="3" width="23.287037037037" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13512" tabRatio="500"/>
+    <workbookView windowWidth="21000" windowHeight="11895" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>group</t>
   </si>
@@ -91,10 +91,19 @@
     <t>header</t>
   </si>
   <si>
+    <t>visitCode</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>1.0. Visit Code</t>
+  </si>
+  <si>
+    <t>1.0. Código da Visita</t>
+  </si>
+  <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>1.1. Member Code</t>
@@ -378,9 +387,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -423,16 +432,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,20 +462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -466,6 +470,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -474,6 +538,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -482,77 +560,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,187 +587,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,32 +781,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,23 +831,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -859,155 +864,159 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1017,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -1037,6 +1046,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1359,23 +1371,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:K16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.1388888888889" customWidth="true"/>
-    <col min="3" max="3" width="14.1388888888889" customWidth="true"/>
-    <col min="4" max="4" width="20.1388888888889" customWidth="true"/>
-    <col min="5" max="5" width="11.712962962963" customWidth="true"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="true"/>
-    <col min="7" max="8" width="41" customWidth="true"/>
-    <col min="9" max="9" width="21.712962962963" customWidth="true"/>
-    <col min="10" max="10" width="9.28703703703704" customWidth="true"/>
-    <col min="12" max="12" width="16.5740740740741" customWidth="true"/>
+    <col min="2" max="2" customWidth="true" width="11.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.1428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.1428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.2857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.6761904761905" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.7142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="9.28571428571429" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1412,33 +1425,37 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -1456,7 +1473,7 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="10"/>
       <c r="J3" t="b">
         <v>1</v>
       </c>
@@ -1480,7 +1497,7 @@
       <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="10"/>
       <c r="J4" t="b">
         <v>1</v>
       </c>
@@ -1490,21 +1507,21 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="10"/>
       <c r="J5" t="b">
         <v>1</v>
       </c>
@@ -1514,7 +1531,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1522,14 +1539,13 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="J6" t="b">
         <v>1</v>
       </c>
@@ -1539,7 +1555,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -1547,13 +1563,14 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="1"/>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="J7" t="b">
         <v>1</v>
       </c>
@@ -1563,7 +1580,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1577,7 +1594,7 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="J8" t="b">
         <v>1</v>
       </c>
@@ -1585,60 +1602,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:10">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="I9" s="10"/>
       <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:10">
       <c r="D10" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="10"/>
       <c r="J11" t="b">
         <v>1</v>
       </c>
@@ -1646,21 +1668,18 @@
     <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>49</v>
       </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="10"/>
       <c r="J12" t="b">
         <v>1</v>
       </c>
@@ -1668,10 +1687,13 @@
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1679,53 +1701,48 @@
       <c r="H13" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="10"/>
       <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>61</v>
       </c>
-      <c r="H15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="10"/>
       <c r="J15" t="b">
         <v>1</v>
       </c>
@@ -1735,13 +1752,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
         <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>64</v>
@@ -1749,7 +1766,7 @@
       <c r="H16" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="10"/>
       <c r="J16" t="b">
         <v>1</v>
       </c>
@@ -1757,20 +1774,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1"/>
-      <c r="I17" s="9"/>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
@@ -1804,6 +1842,9 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -1817,17 +1858,17 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5740740740741" customWidth="true"/>
-    <col min="2" max="2" width="12.287037037037" customWidth="true"/>
-    <col min="3" max="3" width="18.1388888888889" customWidth="true"/>
-    <col min="4" max="4" width="18.287037037037" customWidth="true"/>
-    <col min="5" max="5" width="13.1388888888889" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="12.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.1428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.1428571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1835,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1849,161 +1890,161 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2022,33 +2063,33 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true"/>
-    <col min="2" max="2" width="20.4259259259259" customWidth="true"/>
-    <col min="3" max="3" width="23.287037037037" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.4285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11895" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="17670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>group</t>
   </si>
@@ -70,6 +70,9 @@
     <t>options</t>
   </si>
   <si>
+    <t>foreach_count</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>default_value</t>
   </si>
   <si>
+    <t>calculation</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>display_condition</t>
   </si>
   <si>
+    <t>display_style</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -256,7 +265,7 @@
     <t>Access Granted to Modules</t>
   </si>
   <si>
-    <t>Acesso permitido ao Módulos</t>
+    <t>Acesso permitido aos Módulos</t>
   </si>
   <si>
     <t>value</t>
@@ -387,10 +396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -414,6 +423,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -424,10 +448,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,19 +478,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,30 +524,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,6 +540,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -515,44 +555,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -587,13 +596,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,169 +764,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +787,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -796,46 +814,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,6 +846,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -865,197 +874,197 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1176,7 +1185,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1197,9 +1206,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="true"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1220,7 +1229,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="false"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1290,7 +1299,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1316,7 +1325,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1371,27 +1380,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.1428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.1428571428571" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.2857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.6761904761905" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.7142857142857" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="9.28571428571429" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.5714285714286" collapsed="true"/>
+    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="12.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="9" max="9" width="34.6761904761905" customWidth="1"/>
+    <col min="10" max="10" width="21.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="13.8761904761905" customWidth="1"/>
+    <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
+    <col min="14" max="14" width="16.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,390 +1436,421 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12">
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
       <c r="D11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1"/>
-      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
@@ -1858,17 +1900,17 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.5714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.2857142857143" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.1428571428571" collapsed="true"/>
+    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="18.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1876,175 +1918,175 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2065,31 +2107,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.2857142857143" collapsed="true"/>
+    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>foreach_count</t>
+    <t>repeat_count</t>
   </si>
   <si>
     <t>label</t>
@@ -396,9 +396,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -425,10 +425,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,9 +456,92 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,120 +556,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,187 +596,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,15 +787,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -814,6 +805,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -825,6 +834,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,180 +882,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
+    <workbookView windowHeight="17670" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>paul:</t>
         </r>
@@ -36,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 The option is readonly, not choosable.
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="144">
   <si>
     <t>group</t>
   </si>
@@ -79,6 +79,9 @@
     <t>label::pt</t>
   </si>
   <si>
+    <t>label::fr</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -106,84 +109,114 @@
     <t>string</t>
   </si>
   <si>
-    <t>1.0. Visit Code</t>
+    <t>1.0. Visit code</t>
   </si>
   <si>
     <t>1.0. Código da Visita</t>
   </si>
   <si>
+    <t>1.0. Code de Visite</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
-    <t>1.1. Member Code</t>
+    <t>1.1. Member code</t>
   </si>
   <si>
     <t>1.1. Código do Membro</t>
   </si>
   <si>
+    <t>1.1. Code de Membre</t>
+  </si>
+  <si>
+    <t>header2</t>
+  </si>
+  <si>
     <t>householdCode</t>
   </si>
   <si>
-    <t>1.2. Household Code</t>
+    <t>1.2. Household code</t>
   </si>
   <si>
     <t>1.2. Código do Agregado</t>
   </si>
   <si>
+    <t>1.2. Code du Ménage</t>
+  </si>
+  <si>
     <t>householdName</t>
   </si>
   <si>
-    <t>1.3. Household Name</t>
+    <t>1.3. Household name</t>
   </si>
   <si>
     <t>1.3. Nome do Agregado</t>
   </si>
   <si>
+    <t>1.3. Nom du Ménage</t>
+  </si>
+  <si>
     <t>parents</t>
   </si>
   <si>
     <t>motherCode</t>
   </si>
   <si>
-    <t>2.1. Mother's Code</t>
+    <t>2.1. Mother's code</t>
   </si>
   <si>
     <t>2.1. Código da Mãe</t>
   </si>
   <si>
+    <t>2.1. Code de la Mère</t>
+  </si>
+  <si>
     <t>motherName</t>
   </si>
   <si>
-    <t>2.2. Mother's Name</t>
+    <t>2.2. Mother's name</t>
   </si>
   <si>
     <t>2.2. Nome da Mãe</t>
   </si>
   <si>
+    <t>2.2. Nom de la Mère</t>
+  </si>
+  <si>
     <t>fatherCode</t>
   </si>
   <si>
-    <t>2.3. Father's Code</t>
+    <t>2.3. Father's code</t>
   </si>
   <si>
     <t>2.3. Código do Pai</t>
   </si>
   <si>
+    <t>2.3. Code du Père</t>
+  </si>
+  <si>
     <t>fatherName</t>
   </si>
   <si>
-    <t>2.4. Father's Name</t>
+    <t>2.4. Father's name</t>
   </si>
   <si>
     <t>2.4. Nome do Pai</t>
   </si>
   <si>
-    <t>3.1. Member Name</t>
+    <t>2.4. Nom du Père</t>
+  </si>
+  <si>
+    <t>3.1. Member name</t>
   </si>
   <si>
     <t>3.1. Nome completo</t>
   </si>
   <si>
+    <t>3.1. Nom et prénom du membre</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
@@ -199,39 +232,51 @@
     <t>3.2. Sexo</t>
   </si>
   <si>
+    <t>3.2. Genre</t>
+  </si>
+  <si>
     <t>dob</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>3.3. Date of Birth</t>
+    <t>3.3. Date of birth</t>
   </si>
   <si>
     <t>3.3. Data de Nascimento</t>
   </si>
   <si>
+    <t>3.3. Date de naissance</t>
+  </si>
+  <si>
     <t>headRelationshipType</t>
   </si>
   <si>
     <t>relationships</t>
   </si>
   <si>
-    <t>3.4. Relation with the Head of Household</t>
+    <t>3.4. Relation with the head of household</t>
   </si>
   <si>
     <t>3.4. Relação com o chefe do agregado</t>
   </si>
   <si>
+    <t>3.4. Relation avec le chef de ménage</t>
+  </si>
+  <si>
     <t>residencyStartDate</t>
   </si>
   <si>
-    <t>3.5. Residency Start Date - Date of Census</t>
+    <t>3.5. Residency start date - Date of census</t>
   </si>
   <si>
     <t>3.5. Data do Censo?</t>
   </si>
   <si>
+    <t>3.5. Date du Recensement?</t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -241,10 +286,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>4.1. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>4.1. Códido do Inquiridor</t>
+    <t>4.1. Collected by fieldworker</t>
+  </si>
+  <si>
+    <t>4.1. Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>4.1. Code de l'Enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -253,21 +301,27 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>4.2. Collected Date</t>
+    <t>4.2. Collected date</t>
   </si>
   <si>
     <t>4.2. Data da Visita</t>
   </si>
   <si>
+    <t>4.2. Date de Collecte</t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
-    <t>Access Granted to Modules</t>
+    <t>Access granted to modules</t>
   </si>
   <si>
     <t>Acesso permitido aos Módulos</t>
   </si>
   <si>
+    <t>Accès aux Modules autorisé</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -280,6 +334,9 @@
     <t>Masculino</t>
   </si>
   <si>
+    <t>Masculin</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -289,6 +346,9 @@
     <t>Feminino</t>
   </si>
   <si>
+    <t>Féminin</t>
+  </si>
+  <si>
     <t>HOH</t>
   </si>
   <si>
@@ -298,6 +358,9 @@
     <t>Chefe do Agregado</t>
   </si>
   <si>
+    <t>Chef de ménage</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -307,7 +370,10 @@
     <t>Spouse</t>
   </si>
   <si>
-    <t>Esposo/a</t>
+    <t>Cônjuge</t>
+  </si>
+  <si>
+    <t>Conjoint</t>
   </si>
   <si>
     <t>SON</t>
@@ -319,6 +385,9 @@
     <t>Filho/Filha</t>
   </si>
   <si>
+    <t>Fils/fille</t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -328,6 +397,9 @@
     <t>Irmão/Irmã</t>
   </si>
   <si>
+    <t>Frère/Sœur</t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -337,6 +409,9 @@
     <t>Pai/Mãe</t>
   </si>
   <si>
+    <t>Père/Mère</t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -346,33 +421,45 @@
     <t>Neto/a</t>
   </si>
   <si>
+    <t>Petits-enfants</t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>Not Related</t>
+    <t>Not related</t>
   </si>
   <si>
     <t>Sem relação</t>
   </si>
   <si>
+    <t>Aucune relation</t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
-    <t>Other Relative</t>
+    <t>Other relative</t>
   </si>
   <si>
     <t>Outro parente</t>
   </si>
   <si>
+    <t>Autre parent</t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
-    <t>Don't Know</t>
+    <t>Don't know</t>
   </si>
   <si>
     <t>Não sabe</t>
   </si>
   <si>
+    <t>Ne sait pas</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -382,6 +469,9 @@
     <t>form_name::pt</t>
   </si>
   <si>
+    <t>form_name::fr</t>
+  </si>
+  <si>
     <t>rawMemberEnu</t>
   </si>
   <si>
@@ -389,6 +479,9 @@
   </si>
   <si>
     <t>Registo de Novo Membro</t>
+  </si>
+  <si>
+    <t>Enregistrement de nouveaux Membre</t>
   </si>
 </sst>
 </file>
@@ -396,12 +489,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -411,16 +504,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -433,6 +521,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -441,13 +550,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -457,9 +559,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,123 +664,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,43 +684,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,25 +810,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,119 +870,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -817,8 +926,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,6 +979,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -878,186 +996,185 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1380,29 +1497,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="12.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
+    <col min="6" max="6" width="12.2666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="34.6761904761905" customWidth="1"/>
-    <col min="10" max="10" width="21.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="13.8761904761905" customWidth="1"/>
-    <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
-    <col min="14" max="14" width="16.5714285714286" customWidth="1"/>
+    <col min="9" max="10" width="34.7238095238095" customWidth="1"/>
+    <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
+    <col min="12" max="12" width="13.8190476190476" customWidth="1"/>
+    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.5428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1547,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1442,415 +1559,466 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="4:12">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13">
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12">
+        <v>53</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13">
       <c r="D11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>59</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>69</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>73</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
@@ -1898,27 +2066,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="18.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
+    <col min="2" max="2" width="12.2666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="18.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="22.5428571428571" customWidth="1"/>
+    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1926,167 +2095,203 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>106</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2099,39 +2304,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="35.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>142</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="152">
   <si>
     <t>group</t>
   </si>
@@ -100,6 +100,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -308,6 +311,27 @@
   </si>
   <si>
     <t>4.2. Date de Collecte</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
+  </si>
+  <si>
+    <t>collectedHouseholdId</t>
+  </si>
+  <si>
+    <t>Collected Household Id</t>
+  </si>
+  <si>
+    <t>collectedMemberId</t>
+  </si>
+  <si>
+    <t>Collected Member Id</t>
   </si>
   <si>
     <t>modules</t>
@@ -489,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -522,14 +546,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,22 +567,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -566,15 +575,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -596,30 +597,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,15 +621,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,11 +634,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,55 +714,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,127 +882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,17 +923,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,15 +943,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,21 +958,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,6 +986,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -999,152 +1023,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,15 +1197,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1497,10 +1530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1516,10 +1549,11 @@
     <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
     <col min="12" max="12" width="13.8190476190476" customWidth="1"/>
     <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5428571428571" customWidth="1"/>
+    <col min="15" max="15" width="16.5714285714286" customWidth="1"/>
+    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1581,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1562,35 +1596,38 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1600,29 +1637,29 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1632,25 +1669,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1660,25 +1697,25 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1688,25 +1725,25 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1716,27 +1753,27 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1746,25 +1783,25 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -1774,25 +1811,25 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -1805,44 +1842,44 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="4:13">
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -1850,22 +1887,22 @@
     <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -1873,25 +1910,25 @@
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -1899,49 +1936,49 @@
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
       <c r="M15" t="b">
         <v>1</v>
       </c>
@@ -1951,25 +1988,25 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
@@ -1977,57 +2014,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
+    <row r="17" spans="1:17">
+      <c r="A17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I17" t="s">
+      <c r="E17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="I17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1"/>
@@ -2055,6 +2188,15 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2087,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2104,194 +2246,194 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +2448,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2320,30 +2462,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="162">
   <si>
     <t>group</t>
   </si>
@@ -280,6 +280,36 @@
     <t>3.5. Date du Recensement?</t>
   </si>
   <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>educations</t>
+  </si>
+  <si>
+    <t>3.6. Education Level</t>
+  </si>
+  <si>
+    <t>3.6. Nivel de Educação</t>
+  </si>
+  <si>
+    <t>3.6. Niveau d'éducation</t>
+  </si>
+  <si>
+    <t>call:calculateAge(${dob}) &gt; 5</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>religions</t>
+  </si>
+  <si>
+    <t>3.7. Religion</t>
+  </si>
+  <si>
+    <t>3.7. Religião</t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -289,13 +319,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>4.1. Collected by fieldworker</t>
-  </si>
-  <si>
-    <t>4.1. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>4.1. Code de l'Enquêteur</t>
+    <t>Collected by fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'Enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -304,13 +334,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>4.2. Collected date</t>
-  </si>
-  <si>
-    <t>4.2. Data da Visita</t>
-  </si>
-  <si>
-    <t>4.2. Date de Collecte</t>
+    <t>Collected date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de Collecte</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -513,10 +543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -552,6 +582,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -568,7 +614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +622,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -589,6 +650,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
@@ -597,15 +666,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,38 +682,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,19 +703,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,192 +744,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -923,17 +953,66 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,6 +1022,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,32 +1068,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,152 +1102,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1194,27 +1273,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1530,10 +1625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:M19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1549,7 +1644,7 @@
     <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
     <col min="12" max="12" width="13.8190476190476" customWidth="1"/>
     <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.5714285714286" customWidth="1"/>
+    <col min="15" max="15" width="27.1428571428571" customWidth="1"/>
     <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1581,7 +1676,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1596,13 +1691,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1612,15 +1707,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1637,7 +1732,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="19"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1658,8 +1753,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1686,8 +1781,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1714,8 +1809,8 @@
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1742,8 +1837,8 @@
       <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1772,8 +1867,8 @@
       <c r="J7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1800,8 +1895,8 @@
       <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -1828,8 +1923,8 @@
       <c r="J9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -1853,8 +1948,8 @@
       <c r="J10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -1878,8 +1973,8 @@
       <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -1901,8 +1996,8 @@
       <c r="J12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -1927,8 +2022,8 @@
       <c r="J13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -1950,223 +2045,285 @@
       <c r="J14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:17">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" t="s">
+      <c r="I15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" s="11" customFormat="1" spans="1:14">
+      <c r="A17" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="I17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="J17" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="1" spans="1:14">
+      <c r="A18" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="12" customFormat="1" spans="1:17">
+      <c r="A19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="1" spans="1:17">
+      <c r="A20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="12" customFormat="1" spans="1:17">
+      <c r="A21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="13" customFormat="1" spans="1:14">
+      <c r="A22" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="H22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1"/>
@@ -2197,6 +2354,12 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2211,7 +2374,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A13" sqref="A13:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2229,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2249,16 +2412,16 @@
         <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -2267,16 +2430,16 @@
         <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -2285,19 +2448,19 @@
         <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2305,16 +2468,16 @@
         <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2322,16 +2485,16 @@
         <v>68</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2339,16 +2502,16 @@
         <v>68</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2356,16 +2519,16 @@
         <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2373,16 +2536,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2390,16 +2553,16 @@
         <v>68</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2407,16 +2570,16 @@
         <v>68</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2424,16 +2587,16 @@
         <v>68</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2462,30 +2625,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="184">
   <si>
     <t>group</t>
   </si>
@@ -310,6 +310,197 @@
     <t>3.7. Religião</t>
   </si>
   <si>
+    <t>hasPhoneNumbers</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>3.8.  Does the member have a phone number?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> O membro tem um número de telefone?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Le membre a-t-il un numéro de téléphone?</t>
+    </r>
+  </si>
+  <si>
+    <t>phonePrimary</t>
+  </si>
+  <si>
+    <t>3.8.1. What is the member's primary phone number?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.8.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Qual é o número de telefone principal do membro?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.8.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Quel est le numéro de téléphone principal du membre?</t>
+    </r>
+  </si>
+  <si>
+    <t>${hasPhoneNumbers} = 'true'</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>phoneAlternative</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3.8.2. What is the member's alternative phone number?  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(If available)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.8.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Qual é o número de telefone alternativo do membro? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Se disponível)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.8.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Quel est le numéro de téléphone alternatif du membre ? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Si disponible)</t>
+    </r>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -379,6 +570,30 @@
     <t>value</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -413,9 +628,6 @@
   </si>
   <si>
     <t>Chef de ménage</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>SPO</t>
@@ -543,12 +755,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -567,16 +779,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,31 +802,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,6 +832,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -642,9 +855,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,57 +929,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -744,13 +970,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,25 +1024,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,13 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +1132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,103 +1144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,15 +1252,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1067,9 +1284,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,168 +1310,178 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1266,6 +1495,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1273,6 +1503,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1282,6 +1513,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1291,6 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,15 +1534,11 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,10 +1856,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1639,13 +1870,14 @@
     <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
     <col min="6" max="6" width="12.2666666666667" customWidth="1"/>
     <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
-    <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="10" width="34.7238095238095" customWidth="1"/>
+    <col min="8" max="8" width="52" customWidth="1"/>
+    <col min="9" max="9" width="70" customWidth="1"/>
+    <col min="10" max="10" width="72" customWidth="1"/>
     <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
     <col min="12" max="12" width="13.8190476190476" customWidth="1"/>
     <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
     <col min="15" max="15" width="27.1428571428571" customWidth="1"/>
-    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1676,7 +1908,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1691,7 +1923,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="33" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1707,15 +1939,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1732,7 +1964,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="30"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1753,8 +1985,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1781,8 +2013,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1809,8 +2041,8 @@
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1837,8 +2069,8 @@
       <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1867,8 +2099,8 @@
       <c r="J7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1895,8 +2127,8 @@
       <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -1923,8 +2155,8 @@
       <c r="J9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -1948,8 +2180,8 @@
       <c r="J10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -1973,8 +2205,8 @@
       <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -1996,8 +2228,8 @@
       <c r="J12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -2022,8 +2254,8 @@
       <c r="J13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -2045,294 +2277,351 @@
       <c r="J14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12" t="s">
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" s="11" customFormat="1" spans="1:14">
-      <c r="A17" s="16" t="s">
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" s="13" customFormat="1" spans="1:13">
+      <c r="A17" s="19"/>
+      <c r="D17" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="H17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="13" customFormat="1" spans="1:16">
+      <c r="A18" s="19"/>
+      <c r="D18" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="12" customFormat="1" spans="1:14">
-      <c r="A18" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="I18" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="J18" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="P18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="12" customFormat="1" spans="1:17">
-      <c r="A19" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
+    </row>
+    <row r="19" s="13" customFormat="1" spans="1:16">
+      <c r="A19" s="19"/>
+      <c r="D19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" s="12" customFormat="1" spans="1:17">
-      <c r="A20" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
+      <c r="J19" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="O19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" s="14" customFormat="1" spans="1:14">
+      <c r="A20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="15" customFormat="1" spans="1:14">
+      <c r="A21" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="15" customFormat="1" spans="1:17">
+      <c r="A22" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="N22" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="1:17">
+      <c r="A23" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="12" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="N23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="1:17">
+      <c r="A24" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="D24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="N24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="16" customFormat="1" spans="1:14">
+      <c r="A25" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" s="12" customFormat="1" spans="1:17">
-      <c r="A21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="D25" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" s="13" customFormat="1" spans="1:14">
-      <c r="A22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="H25" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1"/>
@@ -2360,6 +2649,15 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2371,10 +2669,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2392,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2407,196 +2705,230 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" spans="1:5">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="B11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>153</v>
+      <c r="B14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2625,30 +2957,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="224">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>1.0. Code de Visite</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የጉብኝት ኮድ  </t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1.1. Code de Membre</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የአባል ኮድ  </t>
+  </si>
+  <si>
     <t>header2</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>1.2. Code du Ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2. የቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>householdName</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>1.3. Nom du Ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">1.3. የቤተሰቡ ስም  </t>
+  </si>
+  <si>
     <t>parents</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>2.1. Code de la Mère</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. የእናቱ ኮድ  </t>
+  </si>
+  <si>
     <t>motherName</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t>2.2. Nom de la Mère</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2. የእናቱ ስም  </t>
+  </si>
+  <si>
     <t>fatherCode</t>
   </si>
   <si>
@@ -199,6 +220,9 @@
     <t>2.3. Code du Père</t>
   </si>
   <si>
+    <t xml:space="preserve">2.3. የአባቱ ኮድ  </t>
+  </si>
+  <si>
     <t>fatherName</t>
   </si>
   <si>
@@ -211,6 +235,9 @@
     <t>2.4. Nom du Père</t>
   </si>
   <si>
+    <t xml:space="preserve">2.4. የአባቱ ስም  </t>
+  </si>
+  <si>
     <t>3.1. Member name</t>
   </si>
   <si>
@@ -220,6 +247,9 @@
     <t>3.1. Nom et prénom du membre</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1. የአባል ስም  </t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
@@ -238,6 +268,9 @@
     <t>3.2. Genre</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2. ፆታ  </t>
+  </si>
+  <si>
     <t>dob</t>
   </si>
   <si>
@@ -253,6 +286,9 @@
     <t>3.3. Date de naissance</t>
   </si>
   <si>
+    <t xml:space="preserve">3.3. የትውልድ ቀን  </t>
+  </si>
+  <si>
     <t>headRelationshipType</t>
   </si>
   <si>
@@ -268,6 +304,9 @@
     <t>3.4. Relation avec le chef de ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">3.4. ከቤተሰቡ አለቃ ጋር ያለው ዝምድና  </t>
+  </si>
+  <si>
     <t>residencyStartDate</t>
   </si>
   <si>
@@ -280,6 +319,9 @@
     <t>3.5. Date du Recensement?</t>
   </si>
   <si>
+    <t xml:space="preserve">3.5. የመኖሪያ መጀመሪያ ቀን - የብዛት ቆጠራ ቀን  </t>
+  </si>
+  <si>
     <t>education</t>
   </si>
   <si>
@@ -295,6 +337,9 @@
     <t>3.6. Niveau d'éducation</t>
   </si>
   <si>
+    <t xml:space="preserve">3.6. የትምህርት ደረጃ  </t>
+  </si>
+  <si>
     <t>call:calculateAge(${dob}) &gt; 5</t>
   </si>
   <si>
@@ -308,6 +353,9 @@
   </si>
   <si>
     <t>3.7. Religião</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7. ሃይማኖት  </t>
   </si>
   <si>
     <t>hasPhoneNumbers</t>
@@ -361,6 +409,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">3.8. አባሉ የራሱ ስልክ ቁጥር አለው?  </t>
+  </si>
+  <si>
     <t>phonePrimary</t>
   </si>
   <si>
@@ -407,6 +458,9 @@
       </rPr>
       <t xml:space="preserve"> Quel est le numéro de téléphone principal du membre?</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8.1. የአባሉ ዋና የስልክ ቁጥር ምንድነው?  </t>
   </si>
   <si>
     <t>${hasPhoneNumbers} = 'true'</t>
@@ -501,6 +555,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">3.8.2. የአባሉ አማራጭ የስልክ ቁጥር ምንድነው? (ካለ)  </t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -519,6 +576,9 @@
     <t>Code de l'Enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -534,6 +594,9 @@
     <t>Date de Collecte</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -543,18 +606,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የቤተሰብ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የአባል መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -567,6 +639,9 @@
     <t>Accès aux Modules autorisé</t>
   </si>
   <si>
+    <t>ለመድረሻዎች የተፈቀደ መዳረሻ</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -582,6 +657,9 @@
     <t>Oui</t>
   </si>
   <si>
+    <t xml:space="preserve">አዎን  </t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
@@ -594,6 +672,9 @@
     <t>Non</t>
   </si>
   <si>
+    <t xml:space="preserve">አይ  </t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -606,6 +687,9 @@
     <t>Masculin</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድ  </t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -618,6 +702,9 @@
     <t>Féminin</t>
   </si>
   <si>
+    <t xml:space="preserve">ሴት  </t>
+  </si>
+  <si>
     <t>HOH</t>
   </si>
   <si>
@@ -630,6 +717,9 @@
     <t>Chef de ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">የቤተሰብ አለቃ  </t>
+  </si>
+  <si>
     <t>SPO</t>
   </si>
   <si>
@@ -642,6 +732,9 @@
     <t>Conjoint</t>
   </si>
   <si>
+    <t xml:space="preserve">ባል/ሚስት  </t>
+  </si>
+  <si>
     <t>SON</t>
   </si>
   <si>
@@ -654,6 +747,9 @@
     <t>Fils/fille</t>
   </si>
   <si>
+    <t xml:space="preserve">ልጅ  </t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -666,6 +762,9 @@
     <t>Frère/Sœur</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድም/እህት  </t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -678,6 +777,9 @@
     <t>Père/Mère</t>
   </si>
   <si>
+    <t xml:space="preserve">ወላጅ  </t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -690,6 +792,9 @@
     <t>Petits-enfants</t>
   </si>
   <si>
+    <t xml:space="preserve">የልጅ ልጅ  </t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
@@ -702,6 +807,9 @@
     <t>Aucune relation</t>
   </si>
   <si>
+    <t xml:space="preserve">ዝምድና የለውም  </t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
@@ -714,6 +822,9 @@
     <t>Autre parent</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ ዝምድና  </t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -726,6 +837,9 @@
     <t>Ne sait pas</t>
   </si>
   <si>
+    <t xml:space="preserve">አያውቅም  </t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -738,6 +852,9 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>rawMemberEnu</t>
   </si>
   <si>
@@ -748,6 +865,9 @@
   </si>
   <si>
     <t>Enregistrement de nouveaux Membre</t>
+  </si>
+  <si>
+    <t>የአባላት ቆጠራ</t>
   </si>
 </sst>
 </file>
@@ -757,8 +877,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -794,16 +914,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,33 +937,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,16 +953,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,14 +978,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,7 +992,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,15 +1014,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,7 +1096,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,121 +1246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,37 +1264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,6 +1365,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1284,11 +1415,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,164 +1445,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1496,8 +1616,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,9 +1636,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,12 +1658,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,10 +1997,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1873,14 +2014,15 @@
     <col min="8" max="8" width="52" customWidth="1"/>
     <col min="9" max="9" width="70" customWidth="1"/>
     <col min="10" max="10" width="72" customWidth="1"/>
-    <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
-    <col min="12" max="12" width="13.8190476190476" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="27.1428571428571" customWidth="1"/>
-    <col min="16" max="16" width="14.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="40.8666666666667" customWidth="1"/>
+    <col min="12" max="12" width="21.7238095238095" customWidth="1"/>
+    <col min="13" max="13" width="13.8190476190476" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="27.1428571428571" customWidth="1"/>
+    <col min="17" max="17" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +2050,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1923,705 +2065,783 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="40" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="40"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="33"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
       <c r="N9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="4:13">
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14">
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13">
+        <v>64</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14">
       <c r="D11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>71</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>77</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>83</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="18"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="18"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" s="13" customFormat="1" spans="1:13">
-      <c r="A17" s="19"/>
-      <c r="D17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="K14" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="13" customFormat="1" spans="1:16">
-      <c r="A18" s="19"/>
-      <c r="D18" s="13" t="s">
+      <c r="E15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I15" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J15" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="13" t="s">
+      <c r="K15" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" s="13" customFormat="1" spans="1:16">
-      <c r="A19" s="19"/>
-      <c r="D19" s="13" t="s">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="23" t="s">
+      <c r="E16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="I16" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="O19" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" s="14" customFormat="1" spans="1:14">
-      <c r="A20" s="20" t="s">
+      <c r="J16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" s="16" customFormat="1" spans="1:14">
+      <c r="A17" s="21"/>
+      <c r="D17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="14" t="s">
+      <c r="H17" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I17" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J17" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" s="15" customFormat="1" spans="1:14">
-      <c r="A21" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="K17" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="16" customFormat="1" spans="1:17">
+      <c r="A18" s="21"/>
+      <c r="D18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="E18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I18" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J18" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" s="15" customFormat="1" spans="1:17">
-      <c r="A22" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="K18" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="15" t="s">
+      <c r="Q18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="15" t="s">
+    </row>
+    <row r="19" s="16" customFormat="1" spans="1:17">
+      <c r="A19" s="21"/>
+      <c r="D19" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="P19" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="N22" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" s="15" customFormat="1" spans="1:17">
-      <c r="A23" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="N23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:17">
-      <c r="A24" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="N24" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" s="16" customFormat="1" spans="1:14">
-      <c r="A25" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="16" t="s">
+    </row>
+    <row r="20" s="17" customFormat="1" spans="1:15">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="18" customFormat="1" spans="1:15">
+      <c r="A21" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="18" customFormat="1" spans="1:18">
+      <c r="A22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="O22" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="18" customFormat="1" spans="1:18">
+      <c r="A23" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="O23" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="18" customFormat="1" spans="1:18">
+      <c r="A24" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="O24" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="19" customFormat="1" spans="1:15">
+      <c r="A25" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1"/>
@@ -2669,28 +2889,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
     <col min="2" max="2" width="12.2666666666667" customWidth="1"/>
     <col min="3" max="3" width="18.1809523809524" customWidth="1"/>
     <col min="4" max="4" width="18.2666666666667" customWidth="1"/>
     <col min="5" max="5" width="22.5428571428571" customWidth="1"/>
-    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
+    <col min="6" max="6" width="18.7428571428571" customWidth="1"/>
+    <col min="7" max="7" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2702,233 +2923,275 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
+        <v>161</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
+        <v>166</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>171</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>176</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>181</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>186</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>191</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>196</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>175</v>
+        <v>211</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2941,46 +3204,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="35.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>183</v>
+        <v>222</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/member_enu_form.xlsx
+++ b/app/src/main/res/raw/member_enu_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="225">
   <si>
     <t>group</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.4. ከቤተሰቡ አለቃ ጋር ያለው ዝምድና  </t>
+  </si>
+  <si>
+    <t>call:isInstitutionalHousehold() = 'false'</t>
   </si>
   <si>
     <t>residencyStartDate</t>
@@ -914,6 +917,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -922,8 +949,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,7 +980,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -946,16 +988,58 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,87 +1055,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,7 +1078,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,6 +1093,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1102,79 +1243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,25 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,61 +1273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,17 +1357,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1378,7 +1381,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,30 +1397,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,155 +1424,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1682,6 +1691,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1999,8 +2011,8 @@
   <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2018,7 +2030,7 @@
     <col min="12" max="12" width="21.7238095238095" customWidth="1"/>
     <col min="13" max="13" width="13.8190476190476" customWidth="1"/>
     <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
-    <col min="16" max="16" width="27.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="31.5714285714286" customWidth="1"/>
     <col min="17" max="17" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2412,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
         <v>79</v>
@@ -2440,26 +2452,29 @@
       <c r="N13" t="b">
         <v>1</v>
       </c>
+      <c r="P13" s="41" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
@@ -2472,26 +2487,26 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -2500,7 +2515,7 @@
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -2510,26 +2525,26 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="K16" s="30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
@@ -2544,25 +2559,25 @@
     <row r="17" s="16" customFormat="1" spans="1:14">
       <c r="A17" s="21"/>
       <c r="D17" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
@@ -2573,22 +2588,22 @@
     <row r="18" s="16" customFormat="1" spans="1:17">
       <c r="A18" s="21"/>
       <c r="D18" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
@@ -2596,64 +2611,64 @@
         <v>1</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" s="16" customFormat="1" spans="1:17">
       <c r="A19" s="21"/>
       <c r="D19" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="P19" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" s="17" customFormat="1" spans="1:15">
       <c r="A20" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
@@ -2666,25 +2681,25 @@
     </row>
     <row r="21" s="18" customFormat="1" spans="1:15">
       <c r="A21" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
@@ -2697,27 +2712,27 @@
     </row>
     <row r="22" s="18" customFormat="1" spans="1:18">
       <c r="A22" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
@@ -2730,10 +2745,10 @@
     </row>
     <row r="23" s="18" customFormat="1" spans="1:18">
       <c r="A23" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>20</v>
@@ -2741,16 +2756,16 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
@@ -2763,10 +2778,10 @@
     </row>
     <row r="24" s="18" customFormat="1" spans="1:18">
       <c r="A24" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>20</v>
@@ -2774,16 +2789,16 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -2796,25 +2811,25 @@
     </row>
     <row r="25" s="19" customFormat="1" spans="1:15">
       <c r="A25" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
@@ -2911,7 +2926,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2931,42 +2946,42 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2974,19 +2989,19 @@
         <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -2995,19 +3010,19 @@
         <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -3016,22 +3031,22 @@
         <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3039,19 +3054,19 @@
         <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3059,19 +3074,19 @@
         <v>80</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3079,19 +3094,19 @@
         <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3099,19 +3114,19 @@
         <v>80</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3119,19 +3134,19 @@
         <v>80</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3139,19 +3154,19 @@
         <v>80</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3159,19 +3174,19 @@
         <v>80</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3179,19 +3194,19 @@
         <v>80</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3221,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3221,36 +3236,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
